--- a/biology/Mycologie/Gibberella_pulicaris/Gibberella_pulicaris.xlsx
+++ b/biology/Mycologie/Gibberella_pulicaris/Gibberella_pulicaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gibberella pulicaris est une espèce de champignons  ascomycètes de la  famille des Nectriaceae. C'est un agent phytopathogène, qui est l'un des champignons responsables de la fusariose de la pomme de terre.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Botryosphaeria pulicaris,
 Fusarium sambucinum,
